--- a/biology/Zoologie/Diodon_hystrix/Diodon_hystrix.xlsx
+++ b/biology/Zoologie/Diodon_hystrix/Diodon_hystrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Poisson porc-épic, Diodon commun, Porc-épic boubou
 Diodon hystrix ou Poisson porc-épic est une espèce de poissons marins, démersale de la famille des Diodontidae.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Poisson porc-épic est un poisson de taille moyenne pouvant atteindre 91 cm de long, mais la taille moyenne couramment observée est de 40 cm [2]. Son poids maximum est de 2,8 kg[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Poisson porc-épic est un poisson de taille moyenne pouvant atteindre 91 cm de long, mais la taille moyenne couramment observée est de 40 cm . Son poids maximum est de 2,8 kg.
 Son corps est allongé avec une tête globuleuse munie de grands yeux proéminents avec une bouche assez large rarement close lui donnant ainsi un air d'"extraterrestre".
 Les nageoires pectorales sont larges, les pelviennes sont absentes et les nageoires anales et dorsales sont en position reculée sur le corps. Ces deux dernières sont mues simultanément durant la nage. 
 La peau est lisse et ferme, ses écailles étant modifiées en épines. 
@@ -524,7 +538,7 @@
 			(Parc national de Ko Lanta, Thaïlande)
 			Spécimen naturalisé, gonflé (Museum d'Histoire Naturelle, Baku, Azerbaijan).
 Il possède la capacité en cas de danger de se gonfler en avalant de l'eau ce qui a pour résultat de le rendre plus impressionnant vis-à-vis de son agresseur de par son volume et ses épines dressées.
-Autre particularité de l'animal, il concentre dans certaines parties de son corps comme le foie, la peau, les gonades et les viscères un poison mortel, nommé tétrodotoxine qui est une puissante neurotoxine. Ce système défensif constitue un dispositif supplémentaire pour dissuader les prédateurs potentiels[4].
+Autre particularité de l'animal, il concentre dans certaines parties de son corps comme le foie, la peau, les gonades et les viscères un poison mortel, nommé tétrodotoxine qui est une puissante neurotoxine. Ce système défensif constitue un dispositif supplémentaire pour dissuader les prédateurs potentiels.
 Sa longévité est de 10 ans.
 </t>
         </is>
@@ -554,10 +568,12 @@
           <t>Distribution &amp; habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le poisson porc-épic a une distribution circumtropicale, il fréquente les eaux tropicales et subtropicales de l'océan Indien, de l'océan Pacifique et de l'océan Atlantique, mer Méditerranée incluse[5].
-Il apprécie les lagons, les platiers et abords de récifs coralliens et rocheux ainsi que les herbiers entre la surface et 50 m de profondeur[2]. Les adultes sont récifaux. Les jeunes, jusqu'à 20 cm de long, sont pélagiques.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poisson porc-épic a une distribution circumtropicale, il fréquente les eaux tropicales et subtropicales de l'océan Indien, de l'océan Pacifique et de l'océan Atlantique, mer Méditerranée incluse.
+Il apprécie les lagons, les platiers et abords de récifs coralliens et rocheux ainsi que les herbiers entre la surface et 50 m de profondeur. Les adultes sont récifaux. Les jeunes, jusqu'à 20 cm de long, sont pélagiques.
 </t>
         </is>
       </c>
@@ -586,9 +602,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le régime alimentaire de ce poisson porc-épic est basé sur la consommation de crustacés, d'échinodermes, de mollusques bivalves et gastéropodes[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le régime alimentaire de ce poisson porc-épic est basé sur la consommation de crustacés, d'échinodermes, de mollusques bivalves et gastéropodes.
 </t>
         </is>
       </c>
@@ -617,7 +635,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est solitaire, possède une activité nocturne et chasse la nuit, son pic d'activité est atteint au crépuscule et à l'aube. La journée, il se repose à l'abri dans des anfractuosités et autres cavités du récifs.
 </t>
